--- a/HardDrive_Flile_List.xlsx
+++ b/HardDrive_Flile_List.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="98">
   <si>
     <t xml:space="preserve">DiskList</t>
   </si>
@@ -331,6 +331,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -424,14 +425,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
-      <selection pane="bottomRight" activeCell="E71" activeCellId="0" sqref="E71"/>
+      <selection pane="bottomLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+      <selection pane="bottomRight" activeCell="H67" activeCellId="0" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1861,6 +1862,22 @@
         <v>30</v>
       </c>
     </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D72" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E71"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/HardDrive_Flile_List.xlsx
+++ b/HardDrive_Flile_List.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="99">
   <si>
     <t xml:space="preserve">DiskList</t>
   </si>
@@ -317,6 +317,9 @@
   </si>
   <si>
     <t xml:space="preserve">20220914_L2_L3_L4_cbcl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201221107_Counts</t>
   </si>
 </sst>
 </file>
@@ -432,7 +435,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
-      <selection pane="bottomRight" activeCell="H67" activeCellId="0" sqref="H67"/>
+      <selection pane="bottomRight" activeCell="C72" activeCellId="0" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1863,6 +1866,12 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="D72" s="1" t="s">
         <v>78</v>
       </c>

--- a/HardDrive_Flile_List.xlsx
+++ b/HardDrive_Flile_List.xlsx
@@ -11,7 +11,7 @@
     <sheet name="SequencingFiles" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">SequencingFiles!$A$1:$E$71</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">SequencingFiles!$A$1:$F$79</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="108">
   <si>
     <t xml:space="preserve">DiskList</t>
   </si>
@@ -37,7 +37,10 @@
     <t xml:space="preserve">Disk</t>
   </si>
   <si>
-    <t xml:space="preserve">LeftOverSpace</t>
+    <t xml:space="preserve">FileSize_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LeftOverSpace_TB</t>
   </si>
   <si>
     <t xml:space="preserve">Type</t>
@@ -52,7 +55,7 @@
     <t xml:space="preserve">Seagate_SequencingFiles_1</t>
   </si>
   <si>
-    <t xml:space="preserve">120.4 GB</t>
+    <t xml:space="preserve">319.6 GB</t>
   </si>
   <si>
     <t xml:space="preserve">fastq_counts</t>
@@ -61,273 +64,298 @@
     <t xml:space="preserve">20190717_NextSeq_fastq_Counts</t>
   </si>
   <si>
+    <t xml:space="preserve">20190816_NovaSeq_fastq_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20190912_NovaSeq_fastq_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20191121_NovaSeq_Aggr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20191121_NovaSeq_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20191121_NovaSeq_fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210114_UTA_NovaSeq_L3_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210114_UTA_NovaSeq_L3_fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210126_UTA_NovaSeq_L3_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210126_UTA_NovaSeq_L3_fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210830_L3_counts_dual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210830_L3_fastq_dual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220616_L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SequencingFiles_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbcl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210716_L1_count_dual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SequencingFiles_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.9 GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210716_L1_fastq_dual_cellranger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210716_L2_counts_single</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210716_L2_fastq_single_cellranger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20211105_L3_L4_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20211105_L3_L4_fastq_dual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20211105_L3_L4_fastq_single</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220616_L1_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220616_L1_fastq_dual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220616_L1_fastq_single</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220620_20220002_fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220620_20220003_fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220620_20220004_fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220620_20220005_fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220620_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220715_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SequencingFiles_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">406.4 GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220715_L6_fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220715_L7_fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220718_L8_fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220718_L9_fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220722_L10_fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220722_L11_fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AggrHFDvND-YoungvOld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_aggr_Final_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220715_L3_L4_cbcl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SequencingFiles_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1 TB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220718_L3_L4_cbcl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220722_L3_L4_cbcl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220801_L1_L2_cbcl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20221107_cbcl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220801_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SequencingFiles_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">324.3 GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220801_L8_fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220801_L9_fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220914_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220914_L13_fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220914_L14_fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220914_L15_fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220926_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SequencingFiles_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.2 GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220926_L12_fastq_GCCRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220926_L12_fastq_UTSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220926_L16_fastq_dual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220926_L16_fastq_single</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220926_L17_fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220926_L18_fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20221107_Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20221107_L19_fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20221107_L20_fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20221107_L21_fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220926_cbcl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SequencingFiles_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2 TB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20220914_L2_L3_L4_cbcl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pictures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20230601_L22_fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SequencingFiles_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20230601_L23_fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20230601_L24_fastq</t>
+  </si>
+  <si>
     <t xml:space="preserve">20190816_NovaSeq_Combine</t>
   </si>
   <si>
-    <t xml:space="preserve">counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20190816_NovaSeq_fastq_Counts</t>
-  </si>
-  <si>
     <t xml:space="preserve">20190912_NovaSeq_Combine</t>
   </si>
   <si>
-    <t xml:space="preserve">20190912_NovaSeq_fastq_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20191121_NovaSeq_Aggr</t>
-  </si>
-  <si>
     <t xml:space="preserve">20191121_NovaSeq_Combine</t>
   </si>
   <si>
-    <t xml:space="preserve">20191121_NovaSeq_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20191121_NovaSeq_fastq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fastq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20210114_UTA_NovaSeq_L3_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20210114_UTA_NovaSeq_L3_fastq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20210126_UTA_NovaSeq_L3_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20210126_UTA_NovaSeq_L3_fastq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20210830_L3_counts_dual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20210830_L3_fastq_dual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20220616_L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SequencingFiles_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cbcl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20210716_L1_count_dual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SequencingFiles_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">371 GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20210716_L1_fastq_dual_cellranger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20210716_L2_counts_single</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20210716_L2_fastq_single_cellranger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20211105_L3_L4_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20211105_L3_L4_fastq_dual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20211105_L3_L4_fastq_single</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20220616_L1_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20220616_L1_fastq_dual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20220616_L1_fastq_single</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20220620_20220002_fastq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20220620_20220003_fastq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20220620_20220004_fastq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20220620_20220005_fastq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20220620_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20220715_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SequencingFiles_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">270 GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20220715_L6_fastq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20220715_L7_fastq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20220718_L8_fastq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20220718_L9_fastq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20220722_L10_fastq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20220722_L11_fastq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_aggr_Final_22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AggrHFDvND-YoungvOld</t>
+    <t xml:space="preserve">SGLT2_Final_aggr_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_aggr_Final_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_FZ_aggr_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_FZ_aggr_new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR-SGLT2-1_aggr_lowest_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR-SGLT2-2_aggr_lowest_17_32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hesijia_Files</t>
   </si>
   <si>
     <t xml:space="preserve">Keyence Pictures</t>
   </si>
   <si>
-    <t xml:space="preserve">pictures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20220715_L3_L4_cbcl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SequencingFiles_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1 TB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20220718_L3_L4_cbcl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20220722_L3_L4_cbcl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20220801_L1_L2_cbcl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20221107_cbcl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20220801_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SequencingFiles_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">445 GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20220801_L8_fastq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20220801_L9_fastq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20220914_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20220914_L13_fastq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20220914_L14_fastq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20220914_L15_fastq</t>
-  </si>
-  <si>
     <t xml:space="preserve">RefData</t>
   </si>
   <si>
-    <t xml:space="preserve">SequencingFiles_7</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.2 TB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20220926_L12_fastq_UTSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20220926_L18_fastq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20220926_L17_fastq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20220926_L12_fastq_GCCRI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20220926_L16_fastq_single</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20220926_L16_fastq_dual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SGLT2_Final_aggr_23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20220926_Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARR_aggr_Final_24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hesijia_Aggr_24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20221107_L19_fastq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20221107_L20_fastq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20221107_L21_fastq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20220926_cbcl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SequencingFiles_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2 TB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20220914_L2_L3_L4_cbcl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201221107_Counts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -394,7 +422,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -407,6 +435,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,6 +448,15 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -428,24 +469,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D56" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
-      <selection pane="bottomRight" activeCell="C72" activeCellId="0" sqref="C72"/>
+      <selection pane="bottomLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
+      <selection pane="bottomRight" activeCell="D83" activeCellId="0" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="31.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="32.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.65"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.77"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -464,11 +506,14 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -479,16 +524,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -499,1090 +544,1090 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>13</v>
+      <c r="G19" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="F33" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>13</v>
+      <c r="G34" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>21</v>
+        <v>59</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>13</v>
+        <v>59</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="F42" s="1" t="s">
-        <v>13</v>
+        <v>59</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>60</v>
+      <c r="G43" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>30</v>
+        <v>59</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>30</v>
+        <v>66</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="F46" s="1" t="s">
-        <v>30</v>
+        <v>66</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>30</v>
+      <c r="G47" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>30</v>
+        <v>66</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>13</v>
+        <v>66</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>21</v>
+        <v>66</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>21</v>
+        <v>66</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>13</v>
+        <v>75</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F53" s="1" t="s">
-        <v>21</v>
+        <v>75</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>21</v>
+      <c r="G54" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>21</v>
+        <v>75</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>21</v>
+        <v>75</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1590,305 +1635,426 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>21</v>
+        <v>75</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>21</v>
+        <v>75</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B60" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>21</v>
+        <v>75</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>21</v>
+        <v>75</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B62" s="1" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>21</v>
+        <v>75</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B63" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="F63" s="1" t="s">
-        <v>13</v>
+        <v>88</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B64" s="1" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>13</v>
+      <c r="G64" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B65" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>13</v>
+        <v>92</v>
+      </c>
+      <c r="E65" s="1" t="n">
+        <v>181.9</v>
+      </c>
+      <c r="F65" s="3" t="n">
+        <f aca="false">SUM(E65:E76)/1000</f>
+        <v>1.4333</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B66" s="1" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>13</v>
+        <v>92</v>
+      </c>
+      <c r="E66" s="1" t="n">
+        <v>186.3</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B67" s="1" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>21</v>
+        <v>92</v>
+      </c>
+      <c r="E67" s="1" t="n">
+        <v>168.5</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="B68" s="1" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>21</v>
+      <c r="E68" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="B69" s="1" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>21</v>
+        <v>92</v>
+      </c>
+      <c r="E69" s="1" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="B70" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>30</v>
+        <v>92</v>
+      </c>
+      <c r="E70" s="1" t="n">
+        <v>339.9</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B71" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>30</v>
+        <v>92</v>
+      </c>
+      <c r="E71" s="1" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
-        <v>71</v>
+        <v>64</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D72" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E72" s="1" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E73" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E74" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E75" s="1" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="B76" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E76" s="1" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B77" s="1" t="n">
         <v>13</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D73" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>13</v>
+      <c r="C77" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>254.1</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E71"/>
+  <autoFilter ref="A1:F79"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
